--- a/LexisNexis.xlsx
+++ b/LexisNexis.xlsx
@@ -8,19 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelmandiberg/Documents/GitHub/publish_or_perish/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92D6B842-53BE-DF46-9DB2-4EEC2F8B672F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F28388-BE33-5F44-840E-A31A900030AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="6400" windowWidth="27240" windowHeight="16440" xr2:uid="{F15A47A7-F5FC-B14A-953E-E664749D2793}"/>
+    <workbookView xWindow="2560" yWindow="4340" windowWidth="43620" windowHeight="20460" xr2:uid="{F15A47A7-F5FC-B14A-953E-E664749D2793}"/>
   </bookViews>
   <sheets>
     <sheet name="LexisNexis" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LexisNexis!$A$1:$S$77</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="308">
   <si>
     <t>Filename</t>
   </si>
@@ -70,9 +86,6 @@
     <t>ReviewType</t>
   </si>
   <si>
-    <t>Term</t>
-  </si>
-  <si>
     <t>Frankfurter Rundschau</t>
   </si>
   <si>
@@ -685,12 +698,6 @@
     <t>"De toekomst van gisteren en morgen te zien op RetroFuture in het Evoluon"</t>
   </si>
   <si>
-    <t>DPG Media B.V.</t>
-  </si>
-  <si>
-    <t>mplaw</t>
-  </si>
-  <si>
     <t>Denny Gallery to Close After a Decade Becoming the Latest Downtown New York Space to Shutter</t>
   </si>
   <si>
@@ -700,9 +707,6 @@
     <t>Die Kopie vom Original der Kopie Die Zeitung ist das Medium der Vervielfältigung schlechthin, aber m</t>
   </si>
   <si>
-    <t>AG für Die Neue Zürcher Zeitung NZZ Alle Rechte Vorbehalten</t>
-  </si>
-  <si>
     <t>Dit portret uit 1936 bezorgde haar fotograaf wereldfaam maar wat had Allie Mae daaraan</t>
   </si>
   <si>
@@ -730,9 +734,6 @@
     <t>"Kreativität und Kapital Im digitalen Austausch_ Die Eintritt in ein Lebewesen -Schau im Bethanien v"</t>
   </si>
   <si>
-    <t>Contrapress media GmbH Vervielfaeltigung nur mit</t>
-  </si>
-  <si>
     <t>"Kunstprojekt macht Deutsche Wikipedia als Bibliothek begehbar"</t>
   </si>
   <si>
@@ -853,15 +854,9 @@
     <t>Explorer mit Loechern.PDF</t>
   </si>
   <si>
-    <t>Spiegel Online GmbH</t>
-  </si>
-  <si>
     <t>Buy a life!.PDF</t>
   </si>
   <si>
-    <t>Nationwide News Pty Limited</t>
-  </si>
-  <si>
     <t>Lol-Speak wird offizielles Englisch Das Oxford English Dictionary, der Wächter der englischen Sprach.PDF</t>
   </si>
   <si>
@@ -875,6 +870,96 @@
   </si>
   <si>
     <t>La Opinion L.P.</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>USE_THIS</t>
+  </si>
+  <si>
+    <t>Samuel Camenzind</t>
+  </si>
+  <si>
+    <t>On Clone as Genetic Copy: Critique of a Metaphor</t>
+  </si>
+  <si>
+    <t>10.1007/s11569-014-0218-6</t>
+  </si>
+  <si>
+    <t>Matthias Kremp</t>
+  </si>
+  <si>
+    <t>Explorer mit Loechern</t>
+  </si>
+  <si>
+    <t>Spiegel Online</t>
+  </si>
+  <si>
+    <t>mention</t>
+  </si>
+  <si>
+    <t>Oil Standard</t>
+  </si>
+  <si>
+    <t>Samantha Amjadali</t>
+  </si>
+  <si>
+    <t>Buy a life!</t>
+  </si>
+  <si>
+    <t>Sunday Herald Sun (Melbourne, Australia)</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>Outback online survivor</t>
+  </si>
+  <si>
+    <t>Samela Harris</t>
+  </si>
+  <si>
+    <t>The Advertiser (Adelaide, Australia)</t>
+  </si>
+  <si>
+    <t>Gijsbert van Es</t>
+  </si>
+  <si>
+    <t>Algemeen Dagblad.nl</t>
+  </si>
+  <si>
+    <t>Herbert Pfortmüller</t>
+  </si>
+  <si>
+    <t>Neue Zürcher Zeitung</t>
+  </si>
+  <si>
+    <t>Alex Greenberger</t>
+  </si>
+  <si>
+    <t>Neue Zürcher Zeitung</t>
+  </si>
+  <si>
+    <t>Mark Moorman</t>
+  </si>
+  <si>
+    <t>Die Volkskrant</t>
+  </si>
+  <si>
+    <t>DPA</t>
+  </si>
+  <si>
+    <t>Mention</t>
+  </si>
+  <si>
+    <t>Tom Mustroph</t>
+  </si>
+  <si>
+    <t>Die Tageszeitung (TAZ)</t>
+  </si>
+  <si>
+    <t>DBP article duplicate?</t>
   </si>
 </sst>
 </file>
@@ -1754,15 +1839,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780A8CF0-F7CB-AE44-BE27-6EA2CFF4A4A8}">
-  <dimension ref="A1:R77"/>
+  <dimension ref="A1:S77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q77"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="68.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="59" customWidth="1"/>
+    <col min="8" max="8" width="2.83203125" customWidth="1"/>
+    <col min="9" max="9" width="8.1640625" customWidth="1"/>
+    <col min="10" max="11" width="6.5" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" customWidth="1"/>
+    <col min="15" max="15" width="4.5" customWidth="1"/>
+    <col min="16" max="16" width="23.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1808,20 +1906,23 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D2" s="1">
         <v>2016</v>
@@ -1830,14 +1931,16 @@
         <v>45805</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1849,22 +1952,25 @@
         <v>38</v>
       </c>
       <c r="O2" s="1"/>
-      <c r="P2" s="1" t="s">
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="B3" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="D3" s="1">
         <v>2020</v>
@@ -1873,14 +1979,14 @@
         <v>45726</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1888,30 +1994,33 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="1" t="s">
-        <v>19</v>
+      <c r="P3" t="b">
+        <v>1</v>
       </c>
       <c r="Q3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1919,28 +2028,31 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1948,18 +2060,21 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1">
         <v>2015</v>
@@ -1968,12 +2083,12 @@
         <v>45838</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1981,22 +2096,25 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1" t="s">
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D7" s="1">
         <v>2016</v>
@@ -2005,12 +2123,12 @@
         <v>45804</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -2018,22 +2136,25 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="1" t="s">
+      <c r="P7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D8" s="1">
         <v>2015</v>
@@ -2042,12 +2163,12 @@
         <v>45859</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -2055,20 +2176,23 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="1" t="s">
-        <v>38</v>
+      <c r="P8" t="b">
+        <v>1</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1">
         <v>2016</v>
@@ -2077,12 +2201,12 @@
         <v>45805</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -2094,22 +2218,25 @@
         <v>33</v>
       </c>
       <c r="O9" s="1"/>
-      <c r="P9" s="1" t="s">
-        <v>38</v>
+      <c r="P9" t="b">
+        <v>0</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D10" s="1">
         <v>2015</v>
@@ -2118,12 +2245,12 @@
         <v>45826</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -2131,22 +2258,25 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="1" t="s">
+      <c r="P10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D11" s="1">
         <v>2019</v>
@@ -2155,12 +2285,12 @@
         <v>45986</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -2168,22 +2298,25 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="1" t="s">
-        <v>19</v>
+      <c r="P11" t="b">
+        <v>1</v>
       </c>
       <c r="Q11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D12" s="1">
         <v>2014</v>
@@ -2192,12 +2325,12 @@
         <v>45698</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -2205,22 +2338,25 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="1" t="s">
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D13" s="1">
         <v>2019</v>
@@ -2229,12 +2365,12 @@
         <v>45975</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2246,22 +2382,25 @@
         <v>1</v>
       </c>
       <c r="O13" s="1"/>
-      <c r="P13" s="1" t="s">
-        <v>19</v>
+      <c r="P13" t="b">
+        <v>1</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="D14" s="1">
         <v>2017</v>
@@ -2270,12 +2409,12 @@
         <v>45834</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2287,20 +2426,25 @@
         <v>37</v>
       </c>
       <c r="O14" s="1"/>
-      <c r="P14" s="1" t="s">
-        <v>19</v>
+      <c r="P14" t="b">
+        <v>1</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D15" s="1">
         <v>2022</v>
@@ -2309,12 +2453,12 @@
         <v>45922</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -2322,18 +2466,23 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D16" s="1">
         <v>2022</v>
@@ -2342,12 +2491,12 @@
         <v>45915</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>221</v>
+        <v>296</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -2355,18 +2504,25 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D17" s="1">
         <v>2009</v>
@@ -2375,12 +2531,12 @@
         <v>45939</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>222</v>
+        <v>298</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -2388,18 +2544,25 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="C18" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D18" s="1">
         <v>2023</v>
@@ -2408,12 +2571,12 @@
         <v>45935</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -2421,20 +2584,25 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D19" s="1">
         <v>2016</v>
@@ -2443,12 +2611,12 @@
         <v>45839</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>226</v>
+        <v>300</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2456,20 +2624,25 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="1" t="s">
-        <v>19</v>
+      <c r="P19" t="b">
+        <v>1</v>
       </c>
       <c r="Q19" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>301</v>
+      </c>
       <c r="C20" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D20" s="1">
         <v>2022</v>
@@ -2478,12 +2651,12 @@
         <v>45957</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>221</v>
+        <v>302</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2491,20 +2664,23 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="1" t="s">
-        <v>19</v>
+      <c r="P20" t="b">
+        <v>1</v>
       </c>
       <c r="Q20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" s="1">
         <v>2016</v>
@@ -2513,12 +2689,12 @@
         <v>45810</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2530,20 +2706,23 @@
         <v>39</v>
       </c>
       <c r="O21" s="1"/>
-      <c r="P21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="D22" s="1">
         <v>2004</v>
@@ -2552,7 +2731,7 @@
         <v>45670</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -2567,18 +2746,23 @@
         <v>5</v>
       </c>
       <c r="O22" s="1"/>
-      <c r="P22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D23" s="1">
         <v>2017</v>
@@ -2587,7 +2771,7 @@
         <v>45685</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -2598,20 +2782,25 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="P23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="D24" s="1">
         <v>2015</v>
@@ -2620,12 +2809,12 @@
         <v>45964</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2633,22 +2822,25 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="1" t="s">
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="D25" s="1">
         <v>2019</v>
@@ -2657,7 +2849,7 @@
         <v>45962</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -2668,20 +2860,23 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D26" s="1">
         <v>2016</v>
@@ -2690,12 +2885,12 @@
         <v>45717</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2707,22 +2902,25 @@
         <v>1</v>
       </c>
       <c r="O26" s="1"/>
-      <c r="P26" s="1" t="s">
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D27" s="1">
         <v>2001</v>
@@ -2731,7 +2929,7 @@
         <v>45688</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -2742,22 +2940,25 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
-      <c r="P27" s="1" t="s">
-        <v>38</v>
+      <c r="P27" t="b">
+        <v>1</v>
       </c>
       <c r="Q27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D28" s="1">
         <v>2015</v>
@@ -2766,7 +2967,7 @@
         <v>45849</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -2781,20 +2982,23 @@
         <v>10</v>
       </c>
       <c r="O28" s="1"/>
-      <c r="P28" s="1" t="s">
-        <v>38</v>
+      <c r="P28" t="b">
+        <v>1</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D29" s="1">
         <v>2016</v>
@@ -2803,12 +3007,12 @@
         <v>45805</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2816,30 +3020,39 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
-      <c r="P29" s="1" t="s">
+      <c r="P29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B30" s="1"/>
+        <v>230</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="C30" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+        <v>231</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45800</v>
+      </c>
       <c r="F30" s="1" t="s">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2847,18 +3060,23 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q30" s="1"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D31" s="1">
         <v>2016</v>
@@ -2867,12 +3085,12 @@
         <v>45807</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2880,20 +3098,23 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
-      <c r="P31" s="1" t="s">
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D32" s="1">
         <v>2016</v>
@@ -2902,12 +3123,12 @@
         <v>45866</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2915,20 +3136,23 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="1" t="s">
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D33" s="1">
         <v>2016</v>
@@ -2937,12 +3161,12 @@
         <v>45805</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -2954,22 +3178,25 @@
         <v>33</v>
       </c>
       <c r="O33" s="1"/>
-      <c r="P33" s="1" t="s">
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="D34" s="1">
         <v>2015</v>
@@ -2978,12 +3205,12 @@
         <v>45831</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -2995,22 +3222,25 @@
         <v>13</v>
       </c>
       <c r="O34" s="1"/>
-      <c r="P34" s="1" t="s">
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D35" s="1">
         <v>2016</v>
@@ -3019,12 +3249,12 @@
         <v>45962</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -3036,32 +3266,35 @@
         <v>30</v>
       </c>
       <c r="O35" s="1"/>
-      <c r="P35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D36" s="1">
         <v>2015</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -3069,20 +3302,23 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-      <c r="P36" s="1" t="s">
-        <v>38</v>
+      <c r="P36" t="b">
+        <v>1</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D37" s="1">
         <v>2016</v>
@@ -3091,12 +3327,12 @@
         <v>45807</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -3104,23 +3340,26 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-      <c r="P37" s="1" t="s">
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" s="1">
         <v>2020</v>
@@ -3129,12 +3368,12 @@
         <v>45974</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -3142,20 +3381,23 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-      <c r="P38" s="1" t="s">
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R38" s="1"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Q38" s="1"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D39" s="1">
         <v>2015</v>
@@ -3164,12 +3406,12 @@
         <v>45826</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -3177,22 +3419,25 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-      <c r="P39" s="1" t="s">
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="Q39" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="D40" s="1">
         <v>2017</v>
@@ -3201,12 +3446,12 @@
         <v>45841</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -3214,25 +3459,28 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
-      <c r="P40" s="1" t="s">
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R40" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="Q40" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -3243,20 +3491,23 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
-      <c r="P41" s="1" t="s">
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="Q41" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D42" s="1">
         <v>2016</v>
@@ -3265,12 +3516,12 @@
         <v>45817</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -3278,20 +3529,23 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
-      <c r="P42" s="1" t="s">
-        <v>130</v>
+      <c r="P42" t="b">
+        <v>1</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D43" s="1">
         <v>2017</v>
@@ -3300,7 +3554,7 @@
         <v>45691</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -3311,20 +3565,23 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
-      <c r="P43" s="1" t="s">
-        <v>138</v>
+      <c r="P43" t="b">
+        <v>1</v>
       </c>
       <c r="Q43" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D44" s="1">
         <v>2021</v>
@@ -3333,12 +3590,12 @@
         <v>45830</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -3346,20 +3603,23 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
-      <c r="P44" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q44" s="1"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="R44" s="1"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D45" s="1">
         <v>2021</v>
@@ -3368,12 +3628,12 @@
         <v>45830</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -3381,18 +3641,21 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
-      <c r="P45" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q45" s="1"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="R45" s="1"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D46" s="1">
         <v>2015</v>
@@ -3401,12 +3664,12 @@
         <v>45841</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -3414,20 +3677,23 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="1" t="s">
-        <v>130</v>
+      <c r="P46" t="b">
+        <v>1</v>
       </c>
       <c r="Q46" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D47" s="1">
         <v>2015</v>
@@ -3436,12 +3702,12 @@
         <v>45829</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -3449,22 +3715,25 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="1" t="s">
-        <v>130</v>
+      <c r="P47" t="b">
+        <v>1</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D48" s="1">
         <v>2015</v>
@@ -3473,12 +3742,12 @@
         <v>45831</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -3486,30 +3755,33 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="1" t="s">
-        <v>130</v>
+      <c r="P48" t="b">
+        <v>1</v>
       </c>
       <c r="Q48" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -3517,18 +3789,21 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
-      <c r="P49" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q49" s="1"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R49" s="1"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50" s="1">
         <v>2012</v>
@@ -3537,12 +3812,12 @@
         <v>45982</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -3550,20 +3825,23 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
-      <c r="P50" s="1" t="s">
-        <v>130</v>
+      <c r="P50" t="b">
+        <v>1</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D51" s="1">
         <v>2016</v>
@@ -3572,12 +3850,12 @@
         <v>45809</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -3585,22 +3863,25 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
-      <c r="P51" s="1" t="s">
-        <v>130</v>
+      <c r="P51" t="b">
+        <v>1</v>
       </c>
       <c r="Q51" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="D52" s="1">
         <v>2022</v>
@@ -3609,12 +3890,12 @@
         <v>45958</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -3622,20 +3903,23 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
-      <c r="P52" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="1">
         <v>2015</v>
@@ -3644,12 +3928,12 @@
         <v>45827</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -3657,18 +3941,21 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
-      <c r="P53" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q53" s="1"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="R53" s="1"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="1">
         <v>2015</v>
@@ -3677,12 +3964,12 @@
         <v>45857</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -3690,22 +3977,25 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
-      <c r="P54" s="1" t="s">
-        <v>130</v>
+      <c r="P54" t="b">
+        <v>1</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="D55" s="1">
         <v>2016</v>
@@ -3714,12 +4004,12 @@
         <v>45810</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -3727,20 +4017,23 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
-      <c r="P55" s="1" t="s">
-        <v>138</v>
+      <c r="P55" t="b">
+        <v>1</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="1">
         <v>2015</v>
@@ -3749,7 +4042,7 @@
         <v>45833</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -3760,20 +4053,23 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
-      <c r="P56" s="1" t="s">
-        <v>138</v>
+      <c r="P56" t="b">
+        <v>1</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D57" s="1">
         <v>2018</v>
@@ -3782,12 +4078,12 @@
         <v>45689</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -3795,20 +4091,23 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
-      <c r="P57" s="1" t="s">
-        <v>138</v>
+      <c r="P57" t="b">
+        <v>1</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="1">
         <v>2018</v>
@@ -3817,12 +4116,12 @@
         <v>45689</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -3830,22 +4129,25 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
-      <c r="P58" s="1" t="s">
-        <v>138</v>
+      <c r="P58" t="b">
+        <v>1</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="D59" s="1">
         <v>2018</v>
@@ -3854,12 +4156,12 @@
         <v>45672</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -3867,20 +4169,23 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
-      <c r="P59" s="1" t="s">
-        <v>138</v>
+      <c r="P59" t="b">
+        <v>1</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D60" s="1">
         <v>2011</v>
@@ -3889,7 +4194,7 @@
         <v>45936</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -3900,28 +4205,31 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
-      <c r="P60" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q60" s="1"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="R60" s="1"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -3929,20 +4237,23 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
-      <c r="P61" s="1" t="s">
-        <v>138</v>
+      <c r="P61" t="b">
+        <v>1</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="1">
         <v>2016</v>
@@ -3951,12 +4262,12 @@
         <v>45808</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -3964,20 +4275,23 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
-      <c r="P62" s="1" t="s">
-        <v>138</v>
+      <c r="P62" t="b">
+        <v>1</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="1">
         <v>2016</v>
@@ -3986,12 +4300,12 @@
         <v>45808</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -3999,20 +4313,23 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
-      <c r="P63" s="1" t="s">
-        <v>138</v>
+      <c r="P63" t="b">
+        <v>1</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="1">
         <v>2015</v>
@@ -4021,12 +4338,12 @@
         <v>45826</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -4034,20 +4351,23 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
-      <c r="P64" s="1" t="s">
-        <v>130</v>
+      <c r="P64" t="b">
+        <v>1</v>
       </c>
       <c r="Q64" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D65" s="1">
         <v>2016</v>
@@ -4056,12 +4376,12 @@
         <v>45817</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -4069,20 +4389,23 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
-      <c r="P65" s="1" t="s">
-        <v>138</v>
+      <c r="P65" t="b">
+        <v>1</v>
       </c>
       <c r="Q65" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="1">
         <v>2016</v>
@@ -4091,12 +4414,12 @@
         <v>45805</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -4104,20 +4427,25 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1"/>
-      <c r="P66" s="1" t="s">
-        <v>130</v>
+      <c r="P66" t="b">
+        <v>1</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B67" s="1"/>
+        <v>195</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="C67" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="1">
         <v>2016</v>
@@ -4126,12 +4454,12 @@
         <v>45805</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -4139,30 +4467,33 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
-      <c r="P67" s="1" t="s">
-        <v>130</v>
+      <c r="P67" t="b">
+        <v>1</v>
       </c>
       <c r="Q67" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -4170,20 +4501,23 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
-      <c r="P68" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q68" s="1"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="R68" s="1"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D69" s="1">
         <v>2015</v>
@@ -4192,12 +4526,12 @@
         <v>45827</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -4205,20 +4539,23 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
-      <c r="P69" s="1" t="s">
-        <v>130</v>
+      <c r="P69" t="b">
+        <v>1</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D70" s="1">
         <v>2020</v>
@@ -4227,7 +4564,7 @@
         <v>45991</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -4238,18 +4575,21 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
-      <c r="P70" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q70" s="1"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="R70" s="1"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D71" s="1">
         <v>2015</v>
@@ -4258,12 +4598,12 @@
         <v>45826</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -4271,50 +4611,74 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1"/>
-      <c r="P71" s="1" t="s">
-        <v>130</v>
+      <c r="P71" t="b">
+        <v>1</v>
       </c>
       <c r="Q71" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+        <v>202</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2015</v>
+      </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
+      <c r="J72" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
+      <c r="L72" s="1">
+        <v>9</v>
+      </c>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
-      <c r="P72" s="1" t="s">
-        <v>130</v>
+      <c r="P72" t="b">
+        <v>1</v>
       </c>
       <c r="Q72" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
+        <v>271</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2006</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45740</v>
+      </c>
       <c r="F73" s="1" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -4325,19 +4689,34 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
+        <v>272</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2001</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45741</v>
+      </c>
       <c r="F74" s="1" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -4348,19 +4727,26 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -4371,19 +4757,30 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
       <c r="Q75" s="1"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="1"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+        <v>275</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D76" s="1">
+        <v>2001</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45686</v>
+      </c>
       <c r="F76" s="1" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -4394,19 +4791,26 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -4417,15 +4821,19 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
+      <c r="P77" t="b">
+        <v>0</v>
+      </c>
       <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S77" xr:uid="{780A8CF0-F7CB-AE44-BE27-6EA2CFF4A4A8}"/>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{2042D2CE-9A9F-A44E-B5FF-2F843DCC5EB9}"/>
     <hyperlink ref="H3" r:id="rId2" xr:uid="{4BB9C6D9-A13D-B941-B227-46531FA2C24A}"/>
-    <hyperlink ref="Q35" r:id="rId3" display="http://aftersherrielevine.com/" xr:uid="{3ABABB19-B3F2-4947-BB3C-AD3C43355120}"/>
-    <hyperlink ref="Q52" r:id="rId4" display="http://aftersherrielevine.com/" xr:uid="{A0163BA1-7C05-CF44-8A37-1F73F6699723}"/>
+    <hyperlink ref="R35" r:id="rId3" display="http://aftersherrielevine.com/" xr:uid="{3ABABB19-B3F2-4947-BB3C-AD3C43355120}"/>
+    <hyperlink ref="R52" r:id="rId4" display="http://aftersherrielevine.com/" xr:uid="{A0163BA1-7C05-CF44-8A37-1F73F6699723}"/>
     <hyperlink ref="F69" r:id="rId5" display="http://lepoint.fr/" xr:uid="{834F11D2-5C8E-9546-A7D5-60C8B1A3B130}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
